--- a/final_dataset.xlsx
+++ b/final_dataset.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaheryar\Desktop\final dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusra Faisal\OneDrive\Desktop\sbb_withoutRAG\social_bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC4769-5EDA-49C2-8353-222B3153A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="2130" yWindow="225" windowWidth="11355" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$391</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -252,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -305,12 +309,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,57 +619,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -672,7 +686,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45748</v>
       </c>
       <c r="E2" t="s">
@@ -700,7 +714,7 @@
         <v>190420.04</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -710,7 +724,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>45748</v>
       </c>
       <c r="E3" t="s">
@@ -738,7 +752,7 @@
         <v>187740.44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -748,7 +762,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45748</v>
       </c>
       <c r="E4" t="s">
@@ -776,7 +790,7 @@
         <v>185669.45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -786,7 +800,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>45749</v>
       </c>
       <c r="E5" t="s">
@@ -814,7 +828,7 @@
         <v>180021.62</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -824,7 +838,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45749</v>
       </c>
       <c r="E6" t="s">
@@ -852,7 +866,7 @@
         <v>154794.39000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -862,7 +876,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45751</v>
       </c>
       <c r="E7" t="s">
@@ -890,7 +904,7 @@
         <v>152100.79999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -900,7 +914,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45751</v>
       </c>
       <c r="E8" t="s">
@@ -928,7 +942,7 @@
         <v>146788.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -938,7 +952,7 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45752</v>
       </c>
       <c r="E9" t="s">
@@ -966,7 +980,7 @@
         <v>143877.98000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -976,7 +990,7 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>45753</v>
       </c>
       <c r="E10" t="s">
@@ -1004,7 +1018,7 @@
         <v>141562.98000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1028,7 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>45753</v>
       </c>
       <c r="E11" t="s">
@@ -1042,7 +1056,7 @@
         <v>86621.379999999976</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1066,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>45754</v>
       </c>
       <c r="E12" t="s">
@@ -1080,7 +1094,7 @@
         <v>70663.669999999984</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1104,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>45754</v>
       </c>
       <c r="E13" t="s">
@@ -1118,7 +1132,7 @@
         <v>67659.799999999988</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1142,7 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>45755</v>
       </c>
       <c r="E14" t="s">
@@ -1156,7 +1170,7 @@
         <v>60670.999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1180,7 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>45756</v>
       </c>
       <c r="E15" t="s">
@@ -1194,7 +1208,7 @@
         <v>57317.539999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1218,7 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>45756</v>
       </c>
       <c r="E16" t="s">
@@ -1232,7 +1246,7 @@
         <v>65401.499999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1256,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>45759</v>
       </c>
       <c r="E17" t="s">
@@ -1270,7 +1284,7 @@
         <v>63318.979999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1294,7 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>45760</v>
       </c>
       <c r="E18" t="s">
@@ -1308,7 +1322,7 @@
         <v>64794.179999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1332,7 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>45760</v>
       </c>
       <c r="E19" t="s">
@@ -1346,7 +1360,7 @@
         <v>52529.549999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1370,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>45761</v>
       </c>
       <c r="E20" t="s">
@@ -1384,7 +1398,7 @@
         <v>43908.109999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1408,7 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>45765</v>
       </c>
       <c r="E21" t="s">
@@ -1422,7 +1436,7 @@
         <v>47559.329999999987</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +1446,7 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>45766</v>
       </c>
       <c r="E22" t="s">
@@ -1460,7 +1474,7 @@
         <v>43614.009999999987</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1470,7 +1484,7 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>45766</v>
       </c>
       <c r="E23" t="s">
@@ -1498,7 +1512,7 @@
         <v>41740.80999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1522,7 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>45767</v>
       </c>
       <c r="E24" t="s">
@@ -1536,7 +1550,7 @@
         <v>32869.119999999988</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1560,7 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>45769</v>
       </c>
       <c r="E25" t="s">
@@ -1574,7 +1588,7 @@
         <v>29475.51999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1598,7 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>45770</v>
       </c>
       <c r="E26" t="s">
@@ -1612,7 +1626,7 @@
         <v>26742.749999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1636,7 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>45771</v>
       </c>
       <c r="E27" t="s">
@@ -1650,7 +1664,7 @@
         <v>24535.389999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1674,7 @@
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>45771</v>
       </c>
       <c r="E28" t="s">
@@ -1688,7 +1702,7 @@
         <v>23409.509999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1712,7 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>45772</v>
       </c>
       <c r="E29" t="s">
@@ -1726,7 +1740,7 @@
         <v>41360.919999999976</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1750,7 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>45775</v>
       </c>
       <c r="E30" t="s">
@@ -1764,7 +1778,7 @@
         <v>38725.429999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1788,7 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>45776</v>
       </c>
       <c r="E31" t="s">
@@ -1802,7 +1816,7 @@
         <v>22595.929999999989</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1826,7 @@
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>45777</v>
       </c>
       <c r="E32" t="s">
@@ -1840,7 +1854,7 @@
         <v>21451.96999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1864,7 @@
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>45777</v>
       </c>
       <c r="E33" t="s">
@@ -1878,7 +1892,7 @@
         <v>23055.839999999989</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1902,7 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>45778</v>
       </c>
       <c r="E34" t="s">
@@ -1916,7 +1930,7 @@
         <v>33657.589999999982</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1940,7 @@
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>45784</v>
       </c>
       <c r="E35" t="s">
@@ -1954,7 +1968,7 @@
         <v>48261.959999999977</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1964,7 +1978,7 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>45787</v>
       </c>
       <c r="E36" t="s">
@@ -1992,7 +2006,7 @@
         <v>60458.00999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2016,7 @@
       <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>45788</v>
       </c>
       <c r="E37" t="s">
@@ -2030,7 +2044,7 @@
         <v>59953.779999999977</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2040,7 +2054,7 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>45791</v>
       </c>
       <c r="E38" t="s">
@@ -2068,7 +2082,7 @@
         <v>63907.889999999978</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2078,7 +2092,7 @@
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>45792</v>
       </c>
       <c r="E39" t="s">
@@ -2106,7 +2120,7 @@
         <v>62258.82999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2130,7 @@
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>45794</v>
       </c>
       <c r="E40" t="s">
@@ -2144,7 +2158,7 @@
         <v>70477.449999999983</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2168,7 @@
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>45796</v>
       </c>
       <c r="E41" t="s">
@@ -2182,7 +2196,7 @@
         <v>82948.239999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2192,7 +2206,7 @@
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>45797</v>
       </c>
       <c r="E42" t="s">
@@ -2220,7 +2234,7 @@
         <v>94136.569999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2244,7 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>45797</v>
       </c>
       <c r="E43" t="s">
@@ -2258,7 +2272,7 @@
         <v>100706.96</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2282,7 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>45799</v>
       </c>
       <c r="E44" t="s">
@@ -2296,7 +2310,7 @@
         <v>115093.82</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2306,7 +2320,7 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>45802</v>
       </c>
       <c r="E45" t="s">
@@ -2334,7 +2348,7 @@
         <v>130782.12</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2358,7 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>45806</v>
       </c>
       <c r="E46" t="s">
@@ -2372,7 +2386,7 @@
         <v>148245.31</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2382,7 +2396,7 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>45810</v>
       </c>
       <c r="E47" t="s">
@@ -2410,7 +2424,7 @@
         <v>577998.68999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2434,7 @@
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>45812</v>
       </c>
       <c r="E48" t="s">
@@ -2448,7 +2462,7 @@
         <v>573012.11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2472,7 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>45813</v>
       </c>
       <c r="E49" t="s">
@@ -2486,7 +2500,7 @@
         <v>568316.89</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +2510,7 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>45814</v>
       </c>
       <c r="E50" t="s">
@@ -2524,7 +2538,7 @@
         <v>539246.42000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2548,7 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>45814</v>
       </c>
       <c r="E51" t="s">
@@ -2562,7 +2576,7 @@
         <v>538072.84000000008</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2586,7 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>45815</v>
       </c>
       <c r="E52" t="s">
@@ -2600,7 +2614,7 @@
         <v>607278.01000000013</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2624,7 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>45815</v>
       </c>
       <c r="E53" t="s">
@@ -2638,7 +2652,7 @@
         <v>703727.81000000017</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2662,7 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>45816</v>
       </c>
       <c r="E54" t="s">
@@ -2676,7 +2690,7 @@
         <v>699050.44000000018</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2686,7 +2700,7 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>45818</v>
       </c>
       <c r="E55" t="s">
@@ -2714,7 +2728,7 @@
         <v>717709.10000000021</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2738,7 @@
       <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>45820</v>
       </c>
       <c r="E56" t="s">
@@ -2752,7 +2766,7 @@
         <v>704881.15000000026</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2776,7 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>45821</v>
       </c>
       <c r="E57" t="s">
@@ -2790,7 +2804,7 @@
         <v>699639.55000000028</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +2814,7 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>45827</v>
       </c>
       <c r="E58" t="s">
@@ -2828,7 +2842,7 @@
         <v>697219.5700000003</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2838,7 +2852,7 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>45828</v>
       </c>
       <c r="E59" t="s">
@@ -2866,7 +2880,7 @@
         <v>641880.37000000034</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2890,7 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>45829</v>
       </c>
       <c r="E60" t="s">
@@ -2904,7 +2918,7 @@
         <v>638962.21000000031</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +2928,7 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>45830</v>
       </c>
       <c r="E61" t="s">
@@ -2942,7 +2956,7 @@
         <v>605832.78000000026</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2952,7 +2966,7 @@
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>45832</v>
       </c>
       <c r="E62" t="s">
@@ -2980,7 +2994,7 @@
         <v>602053.76000000024</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2990,7 +3004,7 @@
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>45833</v>
       </c>
       <c r="E63" t="s">
@@ -3018,7 +3032,7 @@
         <v>539067.62000000023</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3042,7 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>45834</v>
       </c>
       <c r="E64" t="s">
@@ -3056,7 +3070,7 @@
         <v>540729.58000000019</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3080,7 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>45834</v>
       </c>
       <c r="E65" t="s">
@@ -3094,7 +3108,7 @@
         <v>537770.78000000014</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3104,7 +3118,7 @@
       <c r="C66" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>45837</v>
       </c>
       <c r="E66" t="s">
@@ -3132,7 +3146,7 @@
         <v>534308.4600000002</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3156,7 @@
       <c r="C67" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>45753</v>
       </c>
       <c r="E67" t="s">
@@ -3170,7 +3184,7 @@
         <v>4203.7999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3180,7 +3194,7 @@
       <c r="C68" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>45755</v>
       </c>
       <c r="E68" t="s">
@@ -3208,7 +3222,7 @@
         <v>4142.8799999999992</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3218,7 +3232,7 @@
       <c r="C69" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>45755</v>
       </c>
       <c r="E69" t="s">
@@ -3246,7 +3260,7 @@
         <v>4865.7799999999988</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3256,7 +3270,7 @@
       <c r="C70" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>45755</v>
       </c>
       <c r="E70" t="s">
@@ -3284,7 +3298,7 @@
         <v>4831.9199999999992</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3308,7 @@
       <c r="C71" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>45755</v>
       </c>
       <c r="E71" t="s">
@@ -3322,7 +3336,7 @@
         <v>4823.8099999999986</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3332,7 +3346,7 @@
       <c r="C72" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>45756</v>
       </c>
       <c r="E72" t="s">
@@ -3360,7 +3374,7 @@
         <v>4813.3999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3370,7 +3384,7 @@
       <c r="C73" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>45758</v>
       </c>
       <c r="E73" t="s">
@@ -3398,7 +3412,7 @@
         <v>5106.7299999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3422,7 @@
       <c r="C74" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>45761</v>
       </c>
       <c r="E74" t="s">
@@ -3436,7 +3450,7 @@
         <v>5096.1299999999992</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3460,7 @@
       <c r="C75" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>45763</v>
       </c>
       <c r="E75" t="s">
@@ -3474,7 +3488,7 @@
         <v>5079.6999999999989</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -3484,7 +3498,7 @@
       <c r="C76" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>45766</v>
       </c>
       <c r="E76" t="s">
@@ -3512,7 +3526,7 @@
         <v>5064.7199999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -3522,7 +3536,7 @@
       <c r="C77" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>45767</v>
       </c>
       <c r="E77" t="s">
@@ -3550,7 +3564,7 @@
         <v>5037.74</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +3574,7 @@
       <c r="C78" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>45768</v>
       </c>
       <c r="E78" t="s">
@@ -3588,7 +3602,7 @@
         <v>5030.1399999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3612,7 @@
       <c r="C79" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>45772</v>
       </c>
       <c r="E79" t="s">
@@ -3626,7 +3640,7 @@
         <v>5266.0599999999986</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -3636,7 +3650,7 @@
       <c r="C80" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>45772</v>
       </c>
       <c r="E80" t="s">
@@ -3664,7 +3678,7 @@
         <v>5255.0899999999992</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3688,7 @@
       <c r="C81" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>45773</v>
       </c>
       <c r="E81" t="s">
@@ -3702,7 +3716,7 @@
         <v>6457.6399999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3726,7 @@
       <c r="C82" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>45774</v>
       </c>
       <c r="E82" t="s">
@@ -3740,7 +3754,7 @@
         <v>6443.78</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3750,7 +3764,7 @@
       <c r="C83" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>45776</v>
       </c>
       <c r="E83" t="s">
@@ -3778,7 +3792,7 @@
         <v>6389.57</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -3788,7 +3802,7 @@
       <c r="C84" t="s">
         <v>66</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>45779</v>
       </c>
       <c r="E84" t="s">
@@ -3816,7 +3830,7 @@
         <v>6143.16</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -3826,7 +3840,7 @@
       <c r="C85" t="s">
         <v>66</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>45780</v>
       </c>
       <c r="E85" t="s">
@@ -3854,7 +3868,7 @@
         <v>6117.2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3864,7 +3878,7 @@
       <c r="C86" t="s">
         <v>66</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>45782</v>
       </c>
       <c r="E86" t="s">
@@ -3892,7 +3906,7 @@
         <v>6446.2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +3916,7 @@
       <c r="C87" t="s">
         <v>66</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>45782</v>
       </c>
       <c r="E87" t="s">
@@ -3930,7 +3944,7 @@
         <v>6434.46</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -3940,7 +3954,7 @@
       <c r="C88" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>45782</v>
       </c>
       <c r="E88" t="s">
@@ -3968,7 +3982,7 @@
         <v>6402.7</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -3978,7 +3992,7 @@
       <c r="C89" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>45783</v>
       </c>
       <c r="E89" t="s">
@@ -4006,7 +4020,7 @@
         <v>6396.3099999999986</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="C90" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>45785</v>
       </c>
       <c r="E90" t="s">
@@ -4044,7 +4058,7 @@
         <v>6385.23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4054,7 +4068,7 @@
       <c r="C91" t="s">
         <v>66</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>45786</v>
       </c>
       <c r="E91" t="s">
@@ -4082,7 +4096,7 @@
         <v>6022.33</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +4106,7 @@
       <c r="C92" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>45786</v>
       </c>
       <c r="E92" t="s">
@@ -4120,7 +4134,7 @@
         <v>5960.71</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -4130,7 +4144,7 @@
       <c r="C93" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>45787</v>
       </c>
       <c r="E93" t="s">
@@ -4158,7 +4172,7 @@
         <v>5939.22</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -4168,7 +4182,7 @@
       <c r="C94" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>45790</v>
       </c>
       <c r="E94" t="s">
@@ -4196,7 +4210,7 @@
         <v>5937.0700000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4206,7 +4220,7 @@
       <c r="C95" t="s">
         <v>66</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>45790</v>
       </c>
       <c r="E95" t="s">
@@ -4234,7 +4248,7 @@
         <v>5922.4100000000008</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4244,7 +4258,7 @@
       <c r="C96" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>45791</v>
       </c>
       <c r="E96" t="s">
@@ -4272,7 +4286,7 @@
         <v>5898.31</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4296,7 @@
       <c r="C97" t="s">
         <v>66</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>45791</v>
       </c>
       <c r="E97" t="s">
@@ -4310,7 +4324,7 @@
         <v>5884.09</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4320,7 +4334,7 @@
       <c r="C98" t="s">
         <v>66</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>45791</v>
       </c>
       <c r="E98" t="s">
@@ -4348,7 +4362,7 @@
         <v>5808.43</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -4358,7 +4372,7 @@
       <c r="C99" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>45791</v>
       </c>
       <c r="E99" t="s">
@@ -4386,7 +4400,7 @@
         <v>5834.4900000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4410,7 @@
       <c r="C100" t="s">
         <v>66</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>45792</v>
       </c>
       <c r="E100" t="s">
@@ -4424,7 +4438,7 @@
         <v>5729.8700000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4434,7 +4448,7 @@
       <c r="C101" t="s">
         <v>66</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>45794</v>
       </c>
       <c r="E101" t="s">
@@ -4462,7 +4476,7 @@
         <v>5708.1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4472,7 +4486,7 @@
       <c r="C102" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>45794</v>
       </c>
       <c r="E102" t="s">
@@ -4500,7 +4514,7 @@
         <v>8662.43</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -4510,7 +4524,7 @@
       <c r="C103" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>45795</v>
       </c>
       <c r="E103" t="s">
@@ -4538,7 +4552,7 @@
         <v>8654.51</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -4548,7 +4562,7 @@
       <c r="C104" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>45797</v>
       </c>
       <c r="E104" t="s">
@@ -4576,7 +4590,7 @@
         <v>9342.19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -4586,7 +4600,7 @@
       <c r="C105" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <v>45797</v>
       </c>
       <c r="E105" t="s">
@@ -4614,7 +4628,7 @@
         <v>9329.3100000000013</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -4624,7 +4638,7 @@
       <c r="C106" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>45798</v>
       </c>
       <c r="E106" t="s">
@@ -4652,7 +4666,7 @@
         <v>9246.130000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -4662,7 +4676,7 @@
       <c r="C107" t="s">
         <v>66</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>45804</v>
       </c>
       <c r="E107" t="s">
@@ -4690,7 +4704,7 @@
         <v>9270.0500000000011</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -4700,7 +4714,7 @@
       <c r="C108" t="s">
         <v>66</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>45805</v>
       </c>
       <c r="E108" t="s">
@@ -4728,7 +4742,7 @@
         <v>9253.1200000000008</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -4738,7 +4752,7 @@
       <c r="C109" t="s">
         <v>66</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>45805</v>
       </c>
       <c r="E109" t="s">
@@ -4766,7 +4780,7 @@
         <v>9195.11</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -4776,7 +4790,7 @@
       <c r="C110" t="s">
         <v>66</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>45807</v>
       </c>
       <c r="E110" t="s">
@@ -4804,7 +4818,7 @@
         <v>9187.57</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -4814,7 +4828,7 @@
       <c r="C111" t="s">
         <v>66</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>45808</v>
       </c>
       <c r="E111" t="s">
@@ -4842,7 +4856,7 @@
         <v>8771.9599999999991</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4852,7 +4866,7 @@
       <c r="C112" t="s">
         <v>66</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <v>45809</v>
       </c>
       <c r="E112" t="s">
@@ -4880,7 +4894,7 @@
         <v>8745.369999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -4890,7 +4904,7 @@
       <c r="C113" t="s">
         <v>66</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>45812</v>
       </c>
       <c r="E113" t="s">
@@ -4918,7 +4932,7 @@
         <v>8726.31</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -4928,7 +4942,7 @@
       <c r="C114" t="s">
         <v>66</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>45813</v>
       </c>
       <c r="E114" t="s">
@@ -4956,7 +4970,7 @@
         <v>8767.41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -4966,7 +4980,7 @@
       <c r="C115" t="s">
         <v>66</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>45813</v>
       </c>
       <c r="E115" t="s">
@@ -4994,7 +5008,7 @@
         <v>8738.4699999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -5004,7 +5018,7 @@
       <c r="C116" t="s">
         <v>66</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="1">
         <v>45813</v>
       </c>
       <c r="E116" t="s">
@@ -5032,7 +5046,7 @@
         <v>8638.48</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -5042,7 +5056,7 @@
       <c r="C117" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <v>45815</v>
       </c>
       <c r="E117" t="s">
@@ -5070,7 +5084,7 @@
         <v>8568.6999999999989</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -5080,7 +5094,7 @@
       <c r="C118" t="s">
         <v>66</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="1">
         <v>45816</v>
       </c>
       <c r="E118" t="s">
@@ -5108,7 +5122,7 @@
         <v>9024.14</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -5118,7 +5132,7 @@
       <c r="C119" t="s">
         <v>66</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <v>45816</v>
       </c>
       <c r="E119" t="s">
@@ -5146,7 +5160,7 @@
         <v>8977.7199999999993</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5170,7 @@
       <c r="C120" t="s">
         <v>66</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="1">
         <v>45818</v>
       </c>
       <c r="E120" t="s">
@@ -5184,7 +5198,7 @@
         <v>8956.83</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -5194,7 +5208,7 @@
       <c r="C121" t="s">
         <v>66</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="1">
         <v>45821</v>
       </c>
       <c r="E121" t="s">
@@ -5222,7 +5236,7 @@
         <v>8602.24</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -5232,7 +5246,7 @@
       <c r="C122" t="s">
         <v>66</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="1">
         <v>45823</v>
       </c>
       <c r="E122" t="s">
@@ -5260,7 +5274,7 @@
         <v>8737.41</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -5270,7 +5284,7 @@
       <c r="C123" t="s">
         <v>66</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="1">
         <v>45827</v>
       </c>
       <c r="E123" t="s">
@@ -5298,7 +5312,7 @@
         <v>8728.82</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -5308,7 +5322,7 @@
       <c r="C124" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="1">
         <v>45827</v>
       </c>
       <c r="E124" t="s">
@@ -5336,7 +5350,7 @@
         <v>8710.11</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -5346,7 +5360,7 @@
       <c r="C125" t="s">
         <v>66</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>45828</v>
       </c>
       <c r="E125" t="s">
@@ -5374,7 +5388,7 @@
         <v>8695.16</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -5384,7 +5398,7 @@
       <c r="C126" t="s">
         <v>66</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>45829</v>
       </c>
       <c r="E126" t="s">
@@ -5412,7 +5426,7 @@
         <v>8688.33</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -5422,7 +5436,7 @@
       <c r="C127" t="s">
         <v>66</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <v>45829</v>
       </c>
       <c r="E127" t="s">
@@ -5450,7 +5464,7 @@
         <v>8611.08</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -5460,7 +5474,7 @@
       <c r="C128" t="s">
         <v>66</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="1">
         <v>45832</v>
       </c>
       <c r="E128" t="s">
@@ -5488,7 +5502,7 @@
         <v>8530.41</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -5498,7 +5512,7 @@
       <c r="C129" t="s">
         <v>66</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="1">
         <v>45833</v>
       </c>
       <c r="E129" t="s">
@@ -5526,7 +5540,7 @@
         <v>8510.08</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -5536,7 +5550,7 @@
       <c r="C130" t="s">
         <v>66</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="1">
         <v>45836</v>
       </c>
       <c r="E130" t="s">
@@ -5564,7 +5578,7 @@
         <v>8504.6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -5574,7 +5588,7 @@
       <c r="C131" t="s">
         <v>66</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="1">
         <v>45837</v>
       </c>
       <c r="E131" t="s">
@@ -5602,7 +5616,7 @@
         <v>8455.59</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>68</v>
       </c>
@@ -5612,7 +5626,7 @@
       <c r="C132" t="s">
         <v>70</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="1">
         <v>45749</v>
       </c>
       <c r="E132" t="s">
@@ -5640,7 +5654,7 @@
         <v>20031075.52</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -5650,7 +5664,7 @@
       <c r="C133" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="1">
         <v>45749</v>
       </c>
       <c r="E133" t="s">
@@ -5678,7 +5692,7 @@
         <v>20058739.52</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>68</v>
       </c>
@@ -5688,7 +5702,7 @@
       <c r="C134" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="1">
         <v>45750</v>
       </c>
       <c r="E134" t="s">
@@ -5716,7 +5730,7 @@
         <v>20033844.719999999</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>68</v>
       </c>
@@ -5726,7 +5740,7 @@
       <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="1">
         <v>45751</v>
       </c>
       <c r="E135" t="s">
@@ -5754,7 +5768,7 @@
         <v>20019602.239999998</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -5764,7 +5778,7 @@
       <c r="C136" t="s">
         <v>70</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="1">
         <v>45751</v>
       </c>
       <c r="E136" t="s">
@@ -5792,7 +5806,7 @@
         <v>20018473.030000001</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>68</v>
       </c>
@@ -5802,7 +5816,7 @@
       <c r="C137" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="1">
         <v>45751</v>
       </c>
       <c r="E137" t="s">
@@ -5830,7 +5844,7 @@
         <v>20011806.420000002</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -5840,7 +5854,7 @@
       <c r="C138" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="1">
         <v>45752</v>
       </c>
       <c r="E138" t="s">
@@ -5868,7 +5882,7 @@
         <v>20067504.02</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>68</v>
       </c>
@@ -5878,7 +5892,7 @@
       <c r="C139" t="s">
         <v>70</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="1">
         <v>45756</v>
       </c>
       <c r="E139" t="s">
@@ -5906,7 +5920,7 @@
         <v>20075013.620000001</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>68</v>
       </c>
@@ -5916,7 +5930,7 @@
       <c r="C140" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="1">
         <v>45757</v>
       </c>
       <c r="E140" t="s">
@@ -5944,7 +5958,7 @@
         <v>20071760.890000001</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -5954,7 +5968,7 @@
       <c r="C141" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="1">
         <v>45758</v>
       </c>
       <c r="E141" t="s">
@@ -5982,7 +5996,7 @@
         <v>20021134.09</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -5992,7 +6006,7 @@
       <c r="C142" t="s">
         <v>70</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="1">
         <v>45759</v>
       </c>
       <c r="E142" t="s">
@@ -6020,7 +6034,7 @@
         <v>20175875.079999998</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>68</v>
       </c>
@@ -6030,7 +6044,7 @@
       <c r="C143" t="s">
         <v>70</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="1">
         <v>45760</v>
       </c>
       <c r="E143" t="s">
@@ -6058,7 +6072,7 @@
         <v>20171971.879999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>68</v>
       </c>
@@ -6068,7 +6082,7 @@
       <c r="C144" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="1">
         <v>45761</v>
       </c>
       <c r="E144" t="s">
@@ -6096,7 +6110,7 @@
         <v>20163219.010000002</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>68</v>
       </c>
@@ -6106,7 +6120,7 @@
       <c r="C145" t="s">
         <v>70</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="1">
         <v>45763</v>
       </c>
       <c r="E145" t="s">
@@ -6134,7 +6148,7 @@
         <v>20161128.98</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>68</v>
       </c>
@@ -6144,7 +6158,7 @@
       <c r="C146" t="s">
         <v>70</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="1">
         <v>45763</v>
       </c>
       <c r="E146" t="s">
@@ -6172,7 +6186,7 @@
         <v>20187887.199999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>68</v>
       </c>
@@ -6182,7 +6196,7 @@
       <c r="C147" t="s">
         <v>70</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="1">
         <v>45764</v>
       </c>
       <c r="E147" t="s">
@@ -6210,7 +6224,7 @@
         <v>20129326.030000001</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>68</v>
       </c>
@@ -6220,7 +6234,7 @@
       <c r="C148" t="s">
         <v>70</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="1">
         <v>45765</v>
       </c>
       <c r="E148" t="s">
@@ -6248,7 +6262,7 @@
         <v>20126536.530000001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -6258,7 +6272,7 @@
       <c r="C149" t="s">
         <v>70</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="1">
         <v>45766</v>
       </c>
       <c r="E149" t="s">
@@ -6286,7 +6300,7 @@
         <v>20099975.890000001</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>68</v>
       </c>
@@ -6296,7 +6310,7 @@
       <c r="C150" t="s">
         <v>70</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="1">
         <v>45766</v>
       </c>
       <c r="E150" t="s">
@@ -6324,7 +6338,7 @@
         <v>20094829.050000001</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>68</v>
       </c>
@@ -6334,7 +6348,7 @@
       <c r="C151" t="s">
         <v>70</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="1">
         <v>45768</v>
       </c>
       <c r="E151" t="s">
@@ -6362,7 +6376,7 @@
         <v>20086398.809999999</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>68</v>
       </c>
@@ -6372,7 +6386,7 @@
       <c r="C152" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="1">
         <v>45770</v>
       </c>
       <c r="E152" t="s">
@@ -6400,7 +6414,7 @@
         <v>20366518.949999999</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -6410,7 +6424,7 @@
       <c r="C153" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="1">
         <v>45770</v>
       </c>
       <c r="E153" t="s">
@@ -6438,7 +6452,7 @@
         <v>20298234.579999998</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>68</v>
       </c>
@@ -6448,7 +6462,7 @@
       <c r="C154" t="s">
         <v>70</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="1">
         <v>45772</v>
       </c>
       <c r="E154" t="s">
@@ -6476,7 +6490,7 @@
         <v>20295834.66</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>68</v>
       </c>
@@ -6486,7 +6500,7 @@
       <c r="C155" t="s">
         <v>70</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="1">
         <v>45772</v>
       </c>
       <c r="E155" t="s">
@@ -6514,7 +6528,7 @@
         <v>20292806.300000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>68</v>
       </c>
@@ -6524,7 +6538,7 @@
       <c r="C156" t="s">
         <v>70</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="1">
         <v>45773</v>
       </c>
       <c r="E156" t="s">
@@ -6552,7 +6566,7 @@
         <v>20278887.5</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>68</v>
       </c>
@@ -6562,7 +6576,7 @@
       <c r="C157" t="s">
         <v>70</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="1">
         <v>45775</v>
       </c>
       <c r="E157" t="s">
@@ -6590,7 +6604,7 @@
         <v>20515795.609999999</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>68</v>
       </c>
@@ -6600,7 +6614,7 @@
       <c r="C158" t="s">
         <v>70</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="1">
         <v>45780</v>
       </c>
       <c r="E158" t="s">
@@ -6628,7 +6642,7 @@
         <v>20507532.809999991</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>68</v>
       </c>
@@ -6638,7 +6652,7 @@
       <c r="C159" t="s">
         <v>70</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="1">
         <v>45785</v>
       </c>
       <c r="E159" t="s">
@@ -6666,7 +6680,7 @@
         <v>20499710.61999999</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>68</v>
       </c>
@@ -6676,7 +6690,7 @@
       <c r="C160" t="s">
         <v>70</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="1">
         <v>45790</v>
       </c>
       <c r="E160" t="s">
@@ -6704,7 +6718,7 @@
         <v>20488512.00999999</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>68</v>
       </c>
@@ -6714,7 +6728,7 @@
       <c r="C161" t="s">
         <v>70</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="1">
         <v>45792</v>
       </c>
       <c r="E161" t="s">
@@ -6742,7 +6756,7 @@
         <v>20485768.379999999</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>68</v>
       </c>
@@ -6752,7 +6766,7 @@
       <c r="C162" t="s">
         <v>70</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="1">
         <v>45795</v>
       </c>
       <c r="E162" t="s">
@@ -6780,7 +6794,7 @@
         <v>20494315.809999991</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>68</v>
       </c>
@@ -6790,7 +6804,7 @@
       <c r="C163" t="s">
         <v>70</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="1">
         <v>45795</v>
       </c>
       <c r="E163" t="s">
@@ -6818,7 +6832,7 @@
         <v>20490546.34999999</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>68</v>
       </c>
@@ -6828,7 +6842,7 @@
       <c r="C164" t="s">
         <v>70</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="1">
         <v>45795</v>
       </c>
       <c r="E164" t="s">
@@ -6856,7 +6870,7 @@
         <v>20480942.579999991</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -6866,7 +6880,7 @@
       <c r="C165" t="s">
         <v>70</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="1">
         <v>45796</v>
       </c>
       <c r="E165" t="s">
@@ -6894,7 +6908,7 @@
         <v>20585172.84</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>68</v>
       </c>
@@ -6904,7 +6918,7 @@
       <c r="C166" t="s">
         <v>70</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="1">
         <v>45798</v>
       </c>
       <c r="E166" t="s">
@@ -6932,7 +6946,7 @@
         <v>20582017.350000001</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>68</v>
       </c>
@@ -6942,7 +6956,7 @@
       <c r="C167" t="s">
         <v>70</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="1">
         <v>45799</v>
       </c>
       <c r="E167" t="s">
@@ -6970,7 +6984,7 @@
         <v>20580012.699999999</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>68</v>
       </c>
@@ -6980,7 +6994,7 @@
       <c r="C168" t="s">
         <v>70</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="1">
         <v>45799</v>
       </c>
       <c r="E168" t="s">
@@ -7008,7 +7022,7 @@
         <v>20577753.100000001</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>68</v>
       </c>
@@ -7018,7 +7032,7 @@
       <c r="C169" t="s">
         <v>70</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="1">
         <v>45801</v>
       </c>
       <c r="E169" t="s">
@@ -7046,7 +7060,7 @@
         <v>20574891.5</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>68</v>
       </c>
@@ -7056,7 +7070,7 @@
       <c r="C170" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="1">
         <v>45802</v>
       </c>
       <c r="E170" t="s">
@@ -7084,7 +7098,7 @@
         <v>20572073.739999991</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>68</v>
       </c>
@@ -7094,7 +7108,7 @@
       <c r="C171" t="s">
         <v>70</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="1">
         <v>45805</v>
       </c>
       <c r="E171" t="s">
@@ -7122,7 +7136,7 @@
         <v>20560262.77</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>68</v>
       </c>
@@ -7132,7 +7146,7 @@
       <c r="C172" t="s">
         <v>70</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="1">
         <v>45806</v>
       </c>
       <c r="E172" t="s">
@@ -7160,7 +7174,7 @@
         <v>20557229.419999991</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>68</v>
       </c>
@@ -7170,7 +7184,7 @@
       <c r="C173" t="s">
         <v>70</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="1">
         <v>45807</v>
       </c>
       <c r="E173" t="s">
@@ -7198,7 +7212,7 @@
         <v>20554981.229999989</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>68</v>
       </c>
@@ -7208,7 +7222,7 @@
       <c r="C174" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="1">
         <v>45809</v>
       </c>
       <c r="E174" t="s">
@@ -7236,7 +7250,7 @@
         <v>20589357.739999991</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>68</v>
       </c>
@@ -7246,7 +7260,7 @@
       <c r="C175" t="s">
         <v>70</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="1">
         <v>45810</v>
       </c>
       <c r="E175" t="s">
@@ -7274,7 +7288,7 @@
         <v>20541343.34</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -7284,7 +7298,7 @@
       <c r="C176" t="s">
         <v>70</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="1">
         <v>45810</v>
       </c>
       <c r="E176" t="s">
@@ -7312,7 +7326,7 @@
         <v>20536720.539999999</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -7322,7 +7336,7 @@
       <c r="C177" t="s">
         <v>70</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="1">
         <v>45812</v>
       </c>
       <c r="E177" t="s">
@@ -7350,7 +7364,7 @@
         <v>20530904.93999999</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -7360,7 +7374,7 @@
       <c r="C178" t="s">
         <v>70</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="1">
         <v>45813</v>
       </c>
       <c r="E178" t="s">
@@ -7388,7 +7402,7 @@
         <v>20529606.02999999</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>68</v>
       </c>
@@ -7398,7 +7412,7 @@
       <c r="C179" t="s">
         <v>70</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="1">
         <v>45816</v>
       </c>
       <c r="E179" t="s">
@@ -7426,7 +7440,7 @@
         <v>20536138.539999999</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>68</v>
       </c>
@@ -7436,7 +7450,7 @@
       <c r="C180" t="s">
         <v>70</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="1">
         <v>45818</v>
       </c>
       <c r="E180" t="s">
@@ -7464,7 +7478,7 @@
         <v>20531979.379999999</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>68</v>
       </c>
@@ -7474,7 +7488,7 @@
       <c r="C181" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="1">
         <v>45818</v>
       </c>
       <c r="E181" t="s">
@@ -7502,7 +7516,7 @@
         <v>20980842.719999999</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>68</v>
       </c>
@@ -7512,7 +7526,7 @@
       <c r="C182" t="s">
         <v>70</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="1">
         <v>45819</v>
       </c>
       <c r="E182" t="s">
@@ -7540,7 +7554,7 @@
         <v>20977106.859999999</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>68</v>
       </c>
@@ -7550,7 +7564,7 @@
       <c r="C183" t="s">
         <v>70</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="1">
         <v>45821</v>
       </c>
       <c r="E183" t="s">
@@ -7578,7 +7592,7 @@
         <v>20994220.289999999</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>68</v>
       </c>
@@ -7588,7 +7602,7 @@
       <c r="C184" t="s">
         <v>70</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="1">
         <v>45825</v>
       </c>
       <c r="E184" t="s">
@@ -7616,7 +7630,7 @@
         <v>21011583.09</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -7626,7 +7640,7 @@
       <c r="C185" t="s">
         <v>70</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="1">
         <v>45825</v>
       </c>
       <c r="E185" t="s">
@@ -7654,7 +7668,7 @@
         <v>21008923.989999991</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>68</v>
       </c>
@@ -7664,7 +7678,7 @@
       <c r="C186" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="1">
         <v>45827</v>
       </c>
       <c r="E186" t="s">
@@ -7692,7 +7706,7 @@
         <v>21004962.579999991</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>68</v>
       </c>
@@ -7702,7 +7716,7 @@
       <c r="C187" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="1">
         <v>45828</v>
       </c>
       <c r="E187" t="s">
@@ -7730,7 +7744,7 @@
         <v>21002685.289999999</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>68</v>
       </c>
@@ -7740,7 +7754,7 @@
       <c r="C188" t="s">
         <v>70</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="1">
         <v>45829</v>
       </c>
       <c r="E188" t="s">
@@ -7768,7 +7782,7 @@
         <v>20989618.36999999</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>68</v>
       </c>
@@ -7778,7 +7792,7 @@
       <c r="C189" t="s">
         <v>70</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="1">
         <v>45833</v>
       </c>
       <c r="E189" t="s">
@@ -7806,7 +7820,7 @@
         <v>20971099.169999991</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>68</v>
       </c>
@@ -7816,7 +7830,7 @@
       <c r="C190" t="s">
         <v>70</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="1">
         <v>45833</v>
       </c>
       <c r="E190" t="s">
@@ -7844,7 +7858,7 @@
         <v>20962872.77</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>68</v>
       </c>
@@ -7854,7 +7868,7 @@
       <c r="C191" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="1">
         <v>45834</v>
       </c>
       <c r="E191" t="s">
@@ -7882,7 +7896,7 @@
         <v>20950150.640000001</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>68</v>
       </c>
@@ -7892,7 +7906,7 @@
       <c r="C192" t="s">
         <v>70</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="1">
         <v>45835</v>
       </c>
       <c r="E192" t="s">
@@ -7920,7 +7934,7 @@
         <v>20946736.329999998</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>68</v>
       </c>
@@ -7930,7 +7944,7 @@
       <c r="C193" t="s">
         <v>70</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="1">
         <v>45836</v>
       </c>
       <c r="E193" t="s">
@@ -7958,7 +7972,7 @@
         <v>20940348.940000001</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>68</v>
       </c>
@@ -7968,7 +7982,7 @@
       <c r="C194" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="1">
         <v>45836</v>
       </c>
       <c r="E194" t="s">
@@ -7996,7 +8010,7 @@
         <v>20935429.550000001</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>68</v>
       </c>
@@ -8006,7 +8020,7 @@
       <c r="C195" t="s">
         <v>70</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="1">
         <v>45837</v>
       </c>
       <c r="E195" t="s">
@@ -8034,7 +8048,7 @@
         <v>20921200.940000001</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>68</v>
       </c>
@@ -8044,7 +8058,7 @@
       <c r="C196" t="s">
         <v>70</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="1">
         <v>45837</v>
       </c>
       <c r="E196" t="s">
@@ -8072,7 +8086,7 @@
         <v>20918986.09</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>68</v>
       </c>
@@ -8082,7 +8096,7 @@
       <c r="C197" t="s">
         <v>71</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="1">
         <v>45748</v>
       </c>
       <c r="E197" t="s">
@@ -8110,7 +8124,7 @@
         <v>1975.62</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>68</v>
       </c>
@@ -8120,7 +8134,7 @@
       <c r="C198" t="s">
         <v>71</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="1">
         <v>45748</v>
       </c>
       <c r="E198" t="s">
@@ -8148,7 +8162,7 @@
         <v>1965.84</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>68</v>
       </c>
@@ -8158,7 +8172,7 @@
       <c r="C199" t="s">
         <v>71</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="1">
         <v>45748</v>
       </c>
       <c r="E199" t="s">
@@ -8186,7 +8200,7 @@
         <v>1958.12</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>68</v>
       </c>
@@ -8196,7 +8210,7 @@
       <c r="C200" t="s">
         <v>71</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="1">
         <v>45748</v>
       </c>
       <c r="E200" t="s">
@@ -8224,7 +8238,7 @@
         <v>1948.6</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>68</v>
       </c>
@@ -8234,7 +8248,7 @@
       <c r="C201" t="s">
         <v>71</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="1">
         <v>45749</v>
       </c>
       <c r="E201" t="s">
@@ -8262,7 +8276,7 @@
         <v>1933.7</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>68</v>
       </c>
@@ -8272,7 +8286,7 @@
       <c r="C202" t="s">
         <v>71</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="1">
         <v>45752</v>
       </c>
       <c r="E202" t="s">
@@ -8300,7 +8314,7 @@
         <v>2199.4</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>68</v>
       </c>
@@ -8310,7 +8324,7 @@
       <c r="C203" t="s">
         <v>71</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="1">
         <v>45752</v>
       </c>
       <c r="E203" t="s">
@@ -8338,7 +8352,7 @@
         <v>2176.16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>68</v>
       </c>
@@ -8348,7 +8362,7 @@
       <c r="C204" t="s">
         <v>71</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="1">
         <v>45754</v>
       </c>
       <c r="E204" t="s">
@@ -8376,7 +8390,7 @@
         <v>5159.2</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>68</v>
       </c>
@@ -8386,7 +8400,7 @@
       <c r="C205" t="s">
         <v>71</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="1">
         <v>45756</v>
       </c>
       <c r="E205" t="s">
@@ -8414,7 +8428,7 @@
         <v>5122.22</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>68</v>
       </c>
@@ -8424,7 +8438,7 @@
       <c r="C206" t="s">
         <v>71</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="1">
         <v>45757</v>
       </c>
       <c r="E206" t="s">
@@ -8452,7 +8466,7 @@
         <v>5053.6900000000014</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>68</v>
       </c>
@@ -8462,7 +8476,7 @@
       <c r="C207" t="s">
         <v>71</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="1">
         <v>45759</v>
       </c>
       <c r="E207" t="s">
@@ -8490,7 +8504,7 @@
         <v>5033.6600000000008</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>68</v>
       </c>
@@ -8500,7 +8514,7 @@
       <c r="C208" t="s">
         <v>71</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="1">
         <v>45764</v>
       </c>
       <c r="E208" t="s">
@@ -8528,7 +8542,7 @@
         <v>4715.1000000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>68</v>
       </c>
@@ -8538,7 +8552,7 @@
       <c r="C209" t="s">
         <v>71</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="1">
         <v>45764</v>
       </c>
       <c r="E209" t="s">
@@ -8566,7 +8580,7 @@
         <v>4691.05</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>68</v>
       </c>
@@ -8576,7 +8590,7 @@
       <c r="C210" t="s">
         <v>71</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="1">
         <v>45766</v>
       </c>
       <c r="E210" t="s">
@@ -8604,7 +8618,7 @@
         <v>4653.6500000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>68</v>
       </c>
@@ -8614,7 +8628,7 @@
       <c r="C211" t="s">
         <v>71</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="1">
         <v>45767</v>
       </c>
       <c r="E211" t="s">
@@ -8642,7 +8656,7 @@
         <v>4626.38</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>68</v>
       </c>
@@ -8652,7 +8666,7 @@
       <c r="C212" t="s">
         <v>71</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="1">
         <v>45767</v>
       </c>
       <c r="E212" t="s">
@@ -8680,7 +8694,7 @@
         <v>4590.47</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>68</v>
       </c>
@@ -8690,7 +8704,7 @@
       <c r="C213" t="s">
         <v>71</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="1">
         <v>45768</v>
       </c>
       <c r="E213" t="s">
@@ -8718,7 +8732,7 @@
         <v>4324.59</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>68</v>
       </c>
@@ -8728,7 +8742,7 @@
       <c r="C214" t="s">
         <v>71</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="1">
         <v>45768</v>
       </c>
       <c r="E214" t="s">
@@ -8756,7 +8770,7 @@
         <v>4309.3500000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>68</v>
       </c>
@@ -8766,7 +8780,7 @@
       <c r="C215" t="s">
         <v>71</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="1">
         <v>45769</v>
       </c>
       <c r="E215" t="s">
@@ -8794,7 +8808,7 @@
         <v>4294.2000000000007</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>68</v>
       </c>
@@ -8804,7 +8818,7 @@
       <c r="C216" t="s">
         <v>71</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="1">
         <v>45771</v>
       </c>
       <c r="E216" t="s">
@@ -8832,7 +8846,7 @@
         <v>4279.6100000000006</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -8842,7 +8856,7 @@
       <c r="C217" t="s">
         <v>71</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="1">
         <v>45772</v>
       </c>
       <c r="E217" t="s">
@@ -8870,7 +8884,7 @@
         <v>4249.1900000000014</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -8880,7 +8894,7 @@
       <c r="C218" t="s">
         <v>71</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="1">
         <v>45772</v>
       </c>
       <c r="E218" t="s">
@@ -8908,7 +8922,7 @@
         <v>4240.38</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>68</v>
       </c>
@@ -8918,7 +8932,7 @@
       <c r="C219" t="s">
         <v>71</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="1">
         <v>45774</v>
       </c>
       <c r="E219" t="s">
@@ -8946,7 +8960,7 @@
         <v>4062.98</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>68</v>
       </c>
@@ -8956,7 +8970,7 @@
       <c r="C220" t="s">
         <v>71</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="1">
         <v>45775</v>
       </c>
       <c r="E220" t="s">
@@ -8984,7 +8998,7 @@
         <v>3746.96</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>68</v>
       </c>
@@ -8994,7 +9008,7 @@
       <c r="C221" t="s">
         <v>71</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="1">
         <v>45777</v>
       </c>
       <c r="E221" t="s">
@@ -9022,7 +9036,7 @@
         <v>3743.22</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>68</v>
       </c>
@@ -9032,7 +9046,7 @@
       <c r="C222" t="s">
         <v>71</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="1">
         <v>45779</v>
       </c>
       <c r="E222" t="s">
@@ -9060,7 +9074,7 @@
         <v>3760.93</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>68</v>
       </c>
@@ -9070,7 +9084,7 @@
       <c r="C223" t="s">
         <v>71</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="1">
         <v>45780</v>
       </c>
       <c r="E223" t="s">
@@ -9098,7 +9112,7 @@
         <v>3752.53</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>68</v>
       </c>
@@ -9108,7 +9122,7 @@
       <c r="C224" t="s">
         <v>71</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="1">
         <v>45783</v>
       </c>
       <c r="E224" t="s">
@@ -9136,7 +9150,7 @@
         <v>4038.56</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>68</v>
       </c>
@@ -9146,7 +9160,7 @@
       <c r="C225" t="s">
         <v>71</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="1">
         <v>45784</v>
       </c>
       <c r="E225" t="s">
@@ -9174,7 +9188,7 @@
         <v>4033.690000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>68</v>
       </c>
@@ -9184,7 +9198,7 @@
       <c r="C226" t="s">
         <v>71</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="1">
         <v>45788</v>
       </c>
       <c r="E226" t="s">
@@ -9212,7 +9226,7 @@
         <v>3977.3200000000011</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>68</v>
       </c>
@@ -9222,7 +9236,7 @@
       <c r="C227" t="s">
         <v>71</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="1">
         <v>45791</v>
       </c>
       <c r="E227" t="s">
@@ -9250,7 +9264,7 @@
         <v>3829.420000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>68</v>
       </c>
@@ -9260,7 +9274,7 @@
       <c r="C228" t="s">
         <v>71</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="1">
         <v>45791</v>
       </c>
       <c r="E228" t="s">
@@ -9288,7 +9302,7 @@
         <v>3928.5500000000011</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>68</v>
       </c>
@@ -9298,7 +9312,7 @@
       <c r="C229" t="s">
         <v>71</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="1">
         <v>45792</v>
       </c>
       <c r="E229" t="s">
@@ -9326,7 +9340,7 @@
         <v>3918.27</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>68</v>
       </c>
@@ -9336,7 +9350,7 @@
       <c r="C230" t="s">
         <v>71</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="1">
         <v>45793</v>
       </c>
       <c r="E230" t="s">
@@ -9364,7 +9378,7 @@
         <v>3914.97</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>68</v>
       </c>
@@ -9374,7 +9388,7 @@
       <c r="C231" t="s">
         <v>71</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="1">
         <v>45795</v>
       </c>
       <c r="E231" t="s">
@@ -9402,7 +9416,7 @@
         <v>3886.82</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>68</v>
       </c>
@@ -9412,7 +9426,7 @@
       <c r="C232" t="s">
         <v>71</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="1">
         <v>45796</v>
       </c>
       <c r="E232" t="s">
@@ -9440,7 +9454,7 @@
         <v>3878.32</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>68</v>
       </c>
@@ -9450,7 +9464,7 @@
       <c r="C233" t="s">
         <v>71</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="1">
         <v>45798</v>
       </c>
       <c r="E233" t="s">
@@ -9478,7 +9492,7 @@
         <v>3837.04</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>68</v>
       </c>
@@ -9488,7 +9502,7 @@
       <c r="C234" t="s">
         <v>71</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="1">
         <v>45800</v>
       </c>
       <c r="E234" t="s">
@@ -9516,7 +9530,7 @@
         <v>4438.8099999999986</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>68</v>
       </c>
@@ -9526,7 +9540,7 @@
       <c r="C235" t="s">
         <v>71</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="1">
         <v>45803</v>
       </c>
       <c r="E235" t="s">
@@ -9554,7 +9568,7 @@
         <v>4423.3899999999994</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>68</v>
       </c>
@@ -9564,7 +9578,7 @@
       <c r="C236" t="s">
         <v>71</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="1">
         <v>45804</v>
       </c>
       <c r="E236" t="s">
@@ -9592,7 +9606,7 @@
         <v>4409.1499999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>68</v>
       </c>
@@ -9602,7 +9616,7 @@
       <c r="C237" t="s">
         <v>71</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="1">
         <v>45806</v>
       </c>
       <c r="E237" t="s">
@@ -9630,7 +9644,7 @@
         <v>4566.7199999999993</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>68</v>
       </c>
@@ -9640,7 +9654,7 @@
       <c r="C238" t="s">
         <v>71</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="1">
         <v>45808</v>
       </c>
       <c r="E238" t="s">
@@ -9668,7 +9682,7 @@
         <v>4559.2299999999996</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>68</v>
       </c>
@@ -9678,7 +9692,7 @@
       <c r="C239" t="s">
         <v>71</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="1">
         <v>45809</v>
       </c>
       <c r="E239" t="s">
@@ -9706,7 +9720,7 @@
         <v>4545.2199999999993</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -9716,7 +9730,7 @@
       <c r="C240" t="s">
         <v>71</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="1">
         <v>45810</v>
       </c>
       <c r="E240" t="s">
@@ -9744,7 +9758,7 @@
         <v>4491.78</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>68</v>
       </c>
@@ -9754,7 +9768,7 @@
       <c r="C241" t="s">
         <v>71</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="1">
         <v>45812</v>
       </c>
       <c r="E241" t="s">
@@ -9782,7 +9796,7 @@
         <v>4141.09</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>68</v>
       </c>
@@ -9792,7 +9806,7 @@
       <c r="C242" t="s">
         <v>71</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="1">
         <v>45815</v>
       </c>
       <c r="E242" t="s">
@@ -9820,7 +9834,7 @@
         <v>4023.9</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>68</v>
       </c>
@@ -9830,7 +9844,7 @@
       <c r="C243" t="s">
         <v>71</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="1">
         <v>45816</v>
       </c>
       <c r="E243" t="s">
@@ -9858,7 +9872,7 @@
         <v>3954.39</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>68</v>
       </c>
@@ -9868,7 +9882,7 @@
       <c r="C244" t="s">
         <v>71</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="1">
         <v>45821</v>
       </c>
       <c r="E244" t="s">
@@ -9896,7 +9910,7 @@
         <v>3926.2</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>68</v>
       </c>
@@ -9906,7 +9920,7 @@
       <c r="C245" t="s">
         <v>71</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="1">
         <v>45821</v>
       </c>
       <c r="E245" t="s">
@@ -9934,7 +9948,7 @@
         <v>3903.77</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>68</v>
       </c>
@@ -9944,7 +9958,7 @@
       <c r="C246" t="s">
         <v>71</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="1">
         <v>45823</v>
       </c>
       <c r="E246" t="s">
@@ -9972,7 +9986,7 @@
         <v>3819.82</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>68</v>
       </c>
@@ -9982,7 +9996,7 @@
       <c r="C247" t="s">
         <v>71</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="1">
         <v>45823</v>
       </c>
       <c r="E247" t="s">
@@ -10010,7 +10024,7 @@
         <v>3746.2</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>68</v>
       </c>
@@ -10020,7 +10034,7 @@
       <c r="C248" t="s">
         <v>71</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="1">
         <v>45824</v>
       </c>
       <c r="E248" t="s">
@@ -10048,7 +10062,7 @@
         <v>3716.44</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>68</v>
       </c>
@@ -10058,7 +10072,7 @@
       <c r="C249" t="s">
         <v>71</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="1">
         <v>45826</v>
       </c>
       <c r="E249" t="s">
@@ -10086,7 +10100,7 @@
         <v>3698.68</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>68</v>
       </c>
@@ -10096,7 +10110,7 @@
       <c r="C250" t="s">
         <v>71</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="1">
         <v>45826</v>
       </c>
       <c r="E250" t="s">
@@ -10124,7 +10138,7 @@
         <v>3668.05</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>68</v>
       </c>
@@ -10134,7 +10148,7 @@
       <c r="C251" t="s">
         <v>71</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="1">
         <v>45828</v>
       </c>
       <c r="E251" t="s">
@@ -10162,7 +10176,7 @@
         <v>3601.85</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>68</v>
       </c>
@@ -10172,7 +10186,7 @@
       <c r="C252" t="s">
         <v>71</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="1">
         <v>45830</v>
       </c>
       <c r="E252" t="s">
@@ -10200,7 +10214,7 @@
         <v>3575.61</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>68</v>
       </c>
@@ -10210,7 +10224,7 @@
       <c r="C253" t="s">
         <v>71</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="1">
         <v>45834</v>
       </c>
       <c r="E253" t="s">
@@ -10238,7 +10252,7 @@
         <v>3619.94</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>68</v>
       </c>
@@ -10248,7 +10262,7 @@
       <c r="C254" t="s">
         <v>71</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="1">
         <v>45834</v>
       </c>
       <c r="E254" t="s">
@@ -10276,7 +10290,7 @@
         <v>3518.22</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>68</v>
       </c>
@@ -10286,7 +10300,7 @@
       <c r="C255" t="s">
         <v>71</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="1">
         <v>45834</v>
       </c>
       <c r="E255" t="s">
@@ -10314,7 +10328,7 @@
         <v>3509.8</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>68</v>
       </c>
@@ -10324,7 +10338,7 @@
       <c r="C256" t="s">
         <v>71</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="1">
         <v>45835</v>
       </c>
       <c r="E256" t="s">
@@ -10352,7 +10366,7 @@
         <v>3491.55</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>68</v>
       </c>
@@ -10362,7 +10376,7 @@
       <c r="C257" t="s">
         <v>71</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="1">
         <v>45835</v>
       </c>
       <c r="E257" t="s">
@@ -10390,7 +10404,7 @@
         <v>3454.91</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>68</v>
       </c>
@@ -10400,7 +10414,7 @@
       <c r="C258" t="s">
         <v>71</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="1">
         <v>45836</v>
       </c>
       <c r="E258" t="s">
@@ -10428,7 +10442,7 @@
         <v>3444.78</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -10438,7 +10452,7 @@
       <c r="C259" t="s">
         <v>71</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="1">
         <v>45836</v>
       </c>
       <c r="E259" t="s">
@@ -10466,7 +10480,7 @@
         <v>3380.36</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>68</v>
       </c>
@@ -10476,7 +10490,7 @@
       <c r="C260" t="s">
         <v>71</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="1">
         <v>45836</v>
       </c>
       <c r="E260" t="s">
@@ -10504,7 +10518,7 @@
         <v>3365.77</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>68</v>
       </c>
@@ -10514,7 +10528,7 @@
       <c r="C261" t="s">
         <v>71</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="1">
         <v>45837</v>
       </c>
       <c r="E261" t="s">
@@ -10542,7 +10556,7 @@
         <v>3288.54</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>72</v>
       </c>
@@ -10552,7 +10566,7 @@
       <c r="C262" t="s">
         <v>74</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="1">
         <v>45748</v>
       </c>
       <c r="E262" t="s">
@@ -10580,7 +10594,7 @@
         <v>1630448.74</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -10590,7 +10604,7 @@
       <c r="C263" t="s">
         <v>74</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="1">
         <v>45750</v>
       </c>
       <c r="E263" t="s">
@@ -10618,7 +10632,7 @@
         <v>1616079.08</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>72</v>
       </c>
@@ -10628,7 +10642,7 @@
       <c r="C264" t="s">
         <v>74</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="1">
         <v>45750</v>
       </c>
       <c r="E264" t="s">
@@ -10656,7 +10670,7 @@
         <v>1610711.48</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>72</v>
       </c>
@@ -10666,7 +10680,7 @@
       <c r="C265" t="s">
         <v>74</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="1">
         <v>45751</v>
       </c>
       <c r="E265" t="s">
@@ -10694,7 +10708,7 @@
         <v>1608238.2</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>72</v>
       </c>
@@ -10704,7 +10718,7 @@
       <c r="C266" t="s">
         <v>74</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="1">
         <v>45751</v>
       </c>
       <c r="E266" t="s">
@@ -10732,7 +10746,7 @@
         <v>1605956.2</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>72</v>
       </c>
@@ -10742,7 +10756,7 @@
       <c r="C267" t="s">
         <v>74</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="1">
         <v>45754</v>
       </c>
       <c r="E267" t="s">
@@ -10770,7 +10784,7 @@
         <v>1602708.2</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>72</v>
       </c>
@@ -10780,7 +10794,7 @@
       <c r="C268" t="s">
         <v>74</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="1">
         <v>45760</v>
       </c>
       <c r="E268" t="s">
@@ -10808,7 +10822,7 @@
         <v>1600913.63</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>72</v>
       </c>
@@ -10818,7 +10832,7 @@
       <c r="C269" t="s">
         <v>74</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="1">
         <v>45761</v>
       </c>
       <c r="E269" t="s">
@@ -10846,7 +10860,7 @@
         <v>1998835.63</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>72</v>
       </c>
@@ -10856,7 +10870,7 @@
       <c r="C270" t="s">
         <v>74</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="1">
         <v>45761</v>
       </c>
       <c r="E270" t="s">
@@ -10884,7 +10898,7 @@
         <v>1985047.65</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>72</v>
       </c>
@@ -10894,7 +10908,7 @@
       <c r="C271" t="s">
         <v>74</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="1">
         <v>45762</v>
       </c>
       <c r="E271" t="s">
@@ -10922,7 +10936,7 @@
         <v>1953777.25</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>72</v>
       </c>
@@ -10932,7 +10946,7 @@
       <c r="C272" t="s">
         <v>74</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="1">
         <v>45764</v>
       </c>
       <c r="E272" t="s">
@@ -10960,7 +10974,7 @@
         <v>2089481.1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>72</v>
       </c>
@@ -10970,7 +10984,7 @@
       <c r="C273" t="s">
         <v>74</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="1">
         <v>45765</v>
       </c>
       <c r="E273" t="s">
@@ -10998,7 +11012,7 @@
         <v>2200503.9</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>72</v>
       </c>
@@ -11008,7 +11022,7 @@
       <c r="C274" t="s">
         <v>74</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="1">
         <v>45765</v>
       </c>
       <c r="E274" t="s">
@@ -11036,7 +11050,7 @@
         <v>2252189.23</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>72</v>
       </c>
@@ -11046,7 +11060,7 @@
       <c r="C275" t="s">
         <v>74</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="1">
         <v>45766</v>
       </c>
       <c r="E275" t="s">
@@ -11074,7 +11088,7 @@
         <v>2273236.5299999998</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>72</v>
       </c>
@@ -11084,7 +11098,7 @@
       <c r="C276" t="s">
         <v>74</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="1">
         <v>45767</v>
       </c>
       <c r="E276" t="s">
@@ -11112,7 +11126,7 @@
         <v>2264919.7999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>72</v>
       </c>
@@ -11122,7 +11136,7 @@
       <c r="C277" t="s">
         <v>74</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="1">
         <v>45768</v>
       </c>
       <c r="E277" t="s">
@@ -11150,7 +11164,7 @@
         <v>2209993.81</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>72</v>
       </c>
@@ -11160,7 +11174,7 @@
       <c r="C278" t="s">
         <v>74</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="1">
         <v>45768</v>
       </c>
       <c r="E278" t="s">
@@ -11188,7 +11202,7 @@
         <v>2199507.81</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>72</v>
       </c>
@@ -11198,7 +11212,7 @@
       <c r="C279" t="s">
         <v>74</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="1">
         <v>45769</v>
       </c>
       <c r="E279" t="s">
@@ -11226,7 +11240,7 @@
         <v>2708406.35</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>72</v>
       </c>
@@ -11236,7 +11250,7 @@
       <c r="C280" t="s">
         <v>74</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="1">
         <v>45770</v>
       </c>
       <c r="E280" t="s">
@@ -11264,7 +11278,7 @@
         <v>2702518.03</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>72</v>
       </c>
@@ -11274,7 +11288,7 @@
       <c r="C281" t="s">
         <v>74</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="1">
         <v>45770</v>
       </c>
       <c r="E281" t="s">
@@ -11302,7 +11316,7 @@
         <v>2668944.9500000002</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>72</v>
       </c>
@@ -11312,7 +11326,7 @@
       <c r="C282" t="s">
         <v>74</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="1">
         <v>45770</v>
       </c>
       <c r="E282" t="s">
@@ -11340,7 +11354,7 @@
         <v>2664739</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>72</v>
       </c>
@@ -11350,7 +11364,7 @@
       <c r="C283" t="s">
         <v>74</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="1">
         <v>45774</v>
       </c>
       <c r="E283" t="s">
@@ -11378,7 +11392,7 @@
         <v>2693013.9</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>72</v>
       </c>
@@ -11388,7 +11402,7 @@
       <c r="C284" t="s">
         <v>74</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="1">
         <v>45774</v>
       </c>
       <c r="E284" t="s">
@@ -11416,7 +11430,7 @@
         <v>2679302.71</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>72</v>
       </c>
@@ -11426,7 +11440,7 @@
       <c r="C285" t="s">
         <v>74</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="1">
         <v>45776</v>
       </c>
       <c r="E285" t="s">
@@ -11454,7 +11468,7 @@
         <v>2678489.17</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>72</v>
       </c>
@@ -11464,7 +11478,7 @@
       <c r="C286" t="s">
         <v>74</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="1">
         <v>45778</v>
       </c>
       <c r="E286" t="s">
@@ -11492,7 +11506,7 @@
         <v>2666085.17</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>72</v>
       </c>
@@ -11502,7 +11516,7 @@
       <c r="C287" t="s">
         <v>74</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="1">
         <v>45779</v>
       </c>
       <c r="E287" t="s">
@@ -11530,7 +11544,7 @@
         <v>2649765.88</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>72</v>
       </c>
@@ -11540,7 +11554,7 @@
       <c r="C288" t="s">
         <v>74</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="1">
         <v>45783</v>
       </c>
       <c r="E288" t="s">
@@ -11568,7 +11582,7 @@
         <v>2643208.9300000002</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>72</v>
       </c>
@@ -11578,7 +11592,7 @@
       <c r="C289" t="s">
         <v>74</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="1">
         <v>45783</v>
       </c>
       <c r="E289" t="s">
@@ -11606,7 +11620,7 @@
         <v>2639539.5299999998</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>72</v>
       </c>
@@ -11616,7 +11630,7 @@
       <c r="C290" t="s">
         <v>74</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="1">
         <v>45784</v>
       </c>
       <c r="E290" t="s">
@@ -11644,7 +11658,7 @@
         <v>2511895.9300000002</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>72</v>
       </c>
@@ -11654,7 +11668,7 @@
       <c r="C291" t="s">
         <v>74</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="1">
         <v>45784</v>
       </c>
       <c r="E291" t="s">
@@ -11682,7 +11696,7 @@
         <v>2444130.33</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>72</v>
       </c>
@@ -11692,7 +11706,7 @@
       <c r="C292" t="s">
         <v>74</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="1">
         <v>45785</v>
       </c>
       <c r="E292" t="s">
@@ -11720,7 +11734,7 @@
         <v>2440305.5299999998</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>72</v>
       </c>
@@ -11730,7 +11744,7 @@
       <c r="C293" t="s">
         <v>74</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="1">
         <v>45788</v>
       </c>
       <c r="E293" t="s">
@@ -11758,7 +11772,7 @@
         <v>2435383.13</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>72</v>
       </c>
@@ -11768,7 +11782,7 @@
       <c r="C294" t="s">
         <v>74</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="1">
         <v>45790</v>
       </c>
       <c r="E294" t="s">
@@ -11796,7 +11810,7 @@
         <v>2350545.9300000002</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>72</v>
       </c>
@@ -11806,7 +11820,7 @@
       <c r="C295" t="s">
         <v>74</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="1">
         <v>45793</v>
       </c>
       <c r="E295" t="s">
@@ -11834,7 +11848,7 @@
         <v>2347726.33</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>72</v>
       </c>
@@ -11844,7 +11858,7 @@
       <c r="C296" t="s">
         <v>74</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="1">
         <v>45793</v>
       </c>
       <c r="E296" t="s">
@@ -11872,7 +11886,7 @@
         <v>2348968.56</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>72</v>
       </c>
@@ -11882,7 +11896,7 @@
       <c r="C297" t="s">
         <v>74</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="1">
         <v>45795</v>
       </c>
       <c r="E297" t="s">
@@ -11910,7 +11924,7 @@
         <v>2346959.89</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>72</v>
       </c>
@@ -11920,7 +11934,7 @@
       <c r="C298" t="s">
         <v>74</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="1">
         <v>45796</v>
       </c>
       <c r="E298" t="s">
@@ -11948,7 +11962,7 @@
         <v>2328139.9500000002</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -11958,7 +11972,7 @@
       <c r="C299" t="s">
         <v>74</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="1">
         <v>45797</v>
       </c>
       <c r="E299" t="s">
@@ -11986,7 +12000,7 @@
         <v>2325416.61</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>72</v>
       </c>
@@ -11996,7 +12010,7 @@
       <c r="C300" t="s">
         <v>74</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="1">
         <v>45797</v>
       </c>
       <c r="E300" t="s">
@@ -12024,7 +12038,7 @@
         <v>2312453.94</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>72</v>
       </c>
@@ -12034,7 +12048,7 @@
       <c r="C301" t="s">
         <v>74</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="1">
         <v>45799</v>
       </c>
       <c r="E301" t="s">
@@ -12062,7 +12076,7 @@
         <v>2311756.0699999998</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>72</v>
       </c>
@@ -12072,7 +12086,7 @@
       <c r="C302" t="s">
         <v>74</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="1">
         <v>45799</v>
       </c>
       <c r="E302" t="s">
@@ -12100,7 +12114,7 @@
         <v>2292055.33</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>72</v>
       </c>
@@ -12110,7 +12124,7 @@
       <c r="C303" t="s">
         <v>74</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="1">
         <v>45800</v>
       </c>
       <c r="E303" t="s">
@@ -12138,7 +12152,7 @@
         <v>2289769.0499999998</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>72</v>
       </c>
@@ -12148,7 +12162,7 @@
       <c r="C304" t="s">
         <v>74</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="1">
         <v>45800</v>
       </c>
       <c r="E304" t="s">
@@ -12176,7 +12190,7 @@
         <v>2299668.4</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>72</v>
       </c>
@@ -12186,7 +12200,7 @@
       <c r="C305" t="s">
         <v>74</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="1">
         <v>45804</v>
       </c>
       <c r="E305" t="s">
@@ -12214,7 +12228,7 @@
         <v>2297529.73</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>72</v>
       </c>
@@ -12224,7 +12238,7 @@
       <c r="C306" t="s">
         <v>74</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="1">
         <v>45806</v>
       </c>
       <c r="E306" t="s">
@@ -12252,7 +12266,7 @@
         <v>2292755.29</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>72</v>
       </c>
@@ -12262,7 +12276,7 @@
       <c r="C307" t="s">
         <v>74</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="1">
         <v>45808</v>
       </c>
       <c r="E307" t="s">
@@ -12290,7 +12304,7 @@
         <v>2673022.21</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>72</v>
       </c>
@@ -12300,7 +12314,7 @@
       <c r="C308" t="s">
         <v>74</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="1">
         <v>45810</v>
       </c>
       <c r="E308" t="s">
@@ -12328,7 +12342,7 @@
         <v>2671110.8199999998</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>72</v>
       </c>
@@ -12338,7 +12352,7 @@
       <c r="C309" t="s">
         <v>74</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="1">
         <v>45811</v>
       </c>
       <c r="E309" t="s">
@@ -12366,7 +12380,7 @@
         <v>3157559.09</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>72</v>
       </c>
@@ -12376,7 +12390,7 @@
       <c r="C310" t="s">
         <v>74</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="1">
         <v>45812</v>
       </c>
       <c r="E310" t="s">
@@ -12404,7 +12418,7 @@
         <v>3154119.44</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>72</v>
       </c>
@@ -12414,7 +12428,7 @@
       <c r="C311" t="s">
         <v>74</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="1">
         <v>45812</v>
       </c>
       <c r="E311" t="s">
@@ -12442,7 +12456,7 @@
         <v>3150450.67</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>72</v>
       </c>
@@ -12452,7 +12466,7 @@
       <c r="C312" t="s">
         <v>74</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="1">
         <v>45814</v>
       </c>
       <c r="E312" t="s">
@@ -12480,7 +12494,7 @@
         <v>3192335.47</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>72</v>
       </c>
@@ -12490,7 +12504,7 @@
       <c r="C313" t="s">
         <v>74</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="1">
         <v>45815</v>
       </c>
       <c r="E313" t="s">
@@ -12518,7 +12532,7 @@
         <v>3161873.04</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>72</v>
       </c>
@@ -12528,7 +12542,7 @@
       <c r="C314" t="s">
         <v>74</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="1">
         <v>45815</v>
       </c>
       <c r="E314" t="s">
@@ -12556,7 +12570,7 @@
         <v>3142561.3399999989</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>72</v>
       </c>
@@ -12566,7 +12580,7 @@
       <c r="C315" t="s">
         <v>74</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="1">
         <v>45816</v>
       </c>
       <c r="E315" t="s">
@@ -12594,7 +12608,7 @@
         <v>3257616.379999999</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>72</v>
       </c>
@@ -12604,7 +12618,7 @@
       <c r="C316" t="s">
         <v>74</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="1">
         <v>45817</v>
       </c>
       <c r="E316" t="s">
@@ -12632,7 +12646,7 @@
         <v>3246802.7799999989</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>72</v>
       </c>
@@ -12642,7 +12656,7 @@
       <c r="C317" t="s">
         <v>74</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="1">
         <v>45818</v>
       </c>
       <c r="E317" t="s">
@@ -12670,7 +12684,7 @@
         <v>3245064.4099999992</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>72</v>
       </c>
@@ -12680,7 +12694,7 @@
       <c r="C318" t="s">
         <v>74</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="1">
         <v>45820</v>
       </c>
       <c r="E318" t="s">
@@ -12708,7 +12722,7 @@
         <v>3324491.1599999992</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12718,7 +12732,7 @@
       <c r="C319" t="s">
         <v>74</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="1">
         <v>45821</v>
       </c>
       <c r="E319" t="s">
@@ -12746,7 +12760,7 @@
         <v>3322093.149999999</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>72</v>
       </c>
@@ -12756,7 +12770,7 @@
       <c r="C320" t="s">
         <v>74</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="1">
         <v>45824</v>
       </c>
       <c r="E320" t="s">
@@ -12784,7 +12798,7 @@
         <v>3311875.9499999988</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>72</v>
       </c>
@@ -12794,7 +12808,7 @@
       <c r="C321" t="s">
         <v>74</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="1">
         <v>45827</v>
       </c>
       <c r="E321" t="s">
@@ -12822,7 +12836,7 @@
         <v>3310401.129999999</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>72</v>
       </c>
@@ -12832,7 +12846,7 @@
       <c r="C322" t="s">
         <v>74</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="1">
         <v>45831</v>
       </c>
       <c r="E322" t="s">
@@ -12860,7 +12874,7 @@
         <v>3305887.5299999989</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>72</v>
       </c>
@@ -12870,7 +12884,7 @@
       <c r="C323" t="s">
         <v>74</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="1">
         <v>45833</v>
       </c>
       <c r="E323" t="s">
@@ -12898,7 +12912,7 @@
         <v>3215965.5299999989</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>72</v>
       </c>
@@ -12908,7 +12922,7 @@
       <c r="C324" t="s">
         <v>74</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="1">
         <v>45834</v>
       </c>
       <c r="E324" t="s">
@@ -12936,7 +12950,7 @@
         <v>3276773.129999999</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>72</v>
       </c>
@@ -12946,7 +12960,7 @@
       <c r="C325" t="s">
         <v>74</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="1">
         <v>45836</v>
       </c>
       <c r="E325" t="s">
@@ -12974,7 +12988,7 @@
         <v>3272753.3599999989</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>72</v>
       </c>
@@ -12984,7 +12998,7 @@
       <c r="C326" t="s">
         <v>74</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="1">
         <v>45836</v>
       </c>
       <c r="E326" t="s">
@@ -13012,7 +13026,7 @@
         <v>3267774.08</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>72</v>
       </c>
@@ -13022,7 +13036,7 @@
       <c r="C327" t="s">
         <v>75</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="1">
         <v>45748</v>
       </c>
       <c r="E327" t="s">
@@ -13050,7 +13064,7 @@
         <v>1168.24</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>72</v>
       </c>
@@ -13060,7 +13074,7 @@
       <c r="C328" t="s">
         <v>75</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="1">
         <v>45749</v>
       </c>
       <c r="E328" t="s">
@@ -13088,7 +13102,7 @@
         <v>1154.3599999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>72</v>
       </c>
@@ -13098,7 +13112,7 @@
       <c r="C329" t="s">
         <v>75</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="1">
         <v>45750</v>
       </c>
       <c r="E329" t="s">
@@ -13126,7 +13140,7 @@
         <v>1141.3699999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>72</v>
       </c>
@@ -13136,7 +13150,7 @@
       <c r="C330" t="s">
         <v>75</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="1">
         <v>45750</v>
       </c>
       <c r="E330" t="s">
@@ -13164,7 +13178,7 @@
         <v>1122.99</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>72</v>
       </c>
@@ -13174,7 +13188,7 @@
       <c r="C331" t="s">
         <v>75</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="1">
         <v>45752</v>
       </c>
       <c r="E331" t="s">
@@ -13202,7 +13216,7 @@
         <v>1115.099999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>72</v>
       </c>
@@ -13212,7 +13226,7 @@
       <c r="C332" t="s">
         <v>75</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="1">
         <v>45756</v>
       </c>
       <c r="E332" t="s">
@@ -13240,7 +13254,7 @@
         <v>1106.2099999999989</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13264,7 @@
       <c r="C333" t="s">
         <v>75</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="1">
         <v>45757</v>
       </c>
       <c r="E333" t="s">
@@ -13278,7 +13292,7 @@
         <v>1528.579999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>72</v>
       </c>
@@ -13288,7 +13302,7 @@
       <c r="C334" t="s">
         <v>75</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334" s="1">
         <v>45758</v>
       </c>
       <c r="E334" t="s">
@@ -13316,7 +13330,7 @@
         <v>1487.049999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>72</v>
       </c>
@@ -13326,7 +13340,7 @@
       <c r="C335" t="s">
         <v>75</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335" s="1">
         <v>45758</v>
       </c>
       <c r="E335" t="s">
@@ -13354,7 +13368,7 @@
         <v>1417.19</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>72</v>
       </c>
@@ -13364,7 +13378,7 @@
       <c r="C336" t="s">
         <v>75</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336" s="1">
         <v>45759</v>
       </c>
       <c r="E336" t="s">
@@ -13392,7 +13406,7 @@
         <v>1939.97</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>72</v>
       </c>
@@ -13402,7 +13416,7 @@
       <c r="C337" t="s">
         <v>75</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="1">
         <v>45759</v>
       </c>
       <c r="E337" t="s">
@@ -13430,7 +13444,7 @@
         <v>1948.65</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>72</v>
       </c>
@@ -13440,7 +13454,7 @@
       <c r="C338" t="s">
         <v>75</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="1">
         <v>45761</v>
       </c>
       <c r="E338" t="s">
@@ -13468,7 +13482,7 @@
         <v>1849.75</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>72</v>
       </c>
@@ -13478,7 +13492,7 @@
       <c r="C339" t="s">
         <v>75</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339" s="1">
         <v>45763</v>
       </c>
       <c r="E339" t="s">
@@ -13506,7 +13520,7 @@
         <v>1864.599999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>72</v>
       </c>
@@ -13516,7 +13530,7 @@
       <c r="C340" t="s">
         <v>75</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340" s="1">
         <v>45764</v>
       </c>
       <c r="E340" t="s">
@@ -13544,7 +13558,7 @@
         <v>1807.77</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>72</v>
       </c>
@@ -13554,7 +13568,7 @@
       <c r="C341" t="s">
         <v>75</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341" s="1">
         <v>45765</v>
       </c>
       <c r="E341" t="s">
@@ -13582,7 +13596,7 @@
         <v>2282.54</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>72</v>
       </c>
@@ -13592,7 +13606,7 @@
       <c r="C342" t="s">
         <v>75</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342" s="1">
         <v>45765</v>
       </c>
       <c r="E342" t="s">
@@ -13620,7 +13634,7 @@
         <v>2604.559999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>72</v>
       </c>
@@ -13630,7 +13644,7 @@
       <c r="C343" t="s">
         <v>75</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343" s="1">
         <v>45767</v>
       </c>
       <c r="E343" t="s">
@@ -13658,7 +13672,7 @@
         <v>2593.599999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>72</v>
       </c>
@@ -13668,7 +13682,7 @@
       <c r="C344" t="s">
         <v>75</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="1">
         <v>45768</v>
       </c>
       <c r="E344" t="s">
@@ -13696,7 +13710,7 @@
         <v>2580.9499999999989</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>72</v>
       </c>
@@ -13706,7 +13720,7 @@
       <c r="C345" t="s">
         <v>75</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="1">
         <v>45768</v>
       </c>
       <c r="E345" t="s">
@@ -13734,7 +13748,7 @@
         <v>2574.6899999999991</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>72</v>
       </c>
@@ -13744,7 +13758,7 @@
       <c r="C346" t="s">
         <v>75</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="1">
         <v>45768</v>
       </c>
       <c r="E346" t="s">
@@ -13772,7 +13786,7 @@
         <v>2542.4899999999989</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>72</v>
       </c>
@@ -13782,7 +13796,7 @@
       <c r="C347" t="s">
         <v>75</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347" s="1">
         <v>45770</v>
       </c>
       <c r="E347" t="s">
@@ -13810,7 +13824,7 @@
         <v>2532.5899999999988</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>72</v>
       </c>
@@ -13820,7 +13834,7 @@
       <c r="C348" t="s">
         <v>75</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="1">
         <v>45771</v>
       </c>
       <c r="E348" t="s">
@@ -13848,7 +13862,7 @@
         <v>2410.0399999999991</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>72</v>
       </c>
@@ -13858,7 +13872,7 @@
       <c r="C349" t="s">
         <v>75</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="1">
         <v>45775</v>
       </c>
       <c r="E349" t="s">
@@ -13886,7 +13900,7 @@
         <v>2256.869999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>72</v>
       </c>
@@ -13896,7 +13910,7 @@
       <c r="C350" t="s">
         <v>75</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="1">
         <v>45779</v>
       </c>
       <c r="E350" t="s">
@@ -13924,7 +13938,7 @@
         <v>2237.599999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>72</v>
       </c>
@@ -13934,7 +13948,7 @@
       <c r="C351" t="s">
         <v>75</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="1">
         <v>45779</v>
       </c>
       <c r="E351" t="s">
@@ -13962,7 +13976,7 @@
         <v>2322.0899999999988</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>72</v>
       </c>
@@ -13972,7 +13986,7 @@
       <c r="C352" t="s">
         <v>75</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="1">
         <v>45779</v>
       </c>
       <c r="E352" t="s">
@@ -14000,7 +14014,7 @@
         <v>2308.7599999999989</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>72</v>
       </c>
@@ -14010,7 +14024,7 @@
       <c r="C353" t="s">
         <v>75</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="1">
         <v>45781</v>
       </c>
       <c r="E353" t="s">
@@ -14038,7 +14052,7 @@
         <v>2299.389999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>72</v>
       </c>
@@ -14048,7 +14062,7 @@
       <c r="C354" t="s">
         <v>75</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354" s="1">
         <v>45783</v>
       </c>
       <c r="E354" t="s">
@@ -14076,7 +14090,7 @@
         <v>2287.4299999999989</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>72</v>
       </c>
@@ -14086,7 +14100,7 @@
       <c r="C355" t="s">
         <v>75</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="1">
         <v>45783</v>
       </c>
       <c r="E355" t="s">
@@ -14114,7 +14128,7 @@
         <v>2245.2099999999991</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>72</v>
       </c>
@@ -14124,7 +14138,7 @@
       <c r="C356" t="s">
         <v>75</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="1">
         <v>45789</v>
       </c>
       <c r="E356" t="s">
@@ -14152,7 +14166,7 @@
         <v>2213.5499999999988</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>72</v>
       </c>
@@ -14162,7 +14176,7 @@
       <c r="C357" t="s">
         <v>75</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="1">
         <v>45789</v>
       </c>
       <c r="E357" t="s">
@@ -14190,7 +14204,7 @@
         <v>2203.3799999999992</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>72</v>
       </c>
@@ -14200,7 +14214,7 @@
       <c r="C358" t="s">
         <v>75</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="1">
         <v>45789</v>
       </c>
       <c r="E358" t="s">
@@ -14228,7 +14242,7 @@
         <v>2179.9899999999989</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>72</v>
       </c>
@@ -14238,7 +14252,7 @@
       <c r="C359" t="s">
         <v>75</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="1">
         <v>45790</v>
       </c>
       <c r="E359" t="s">
@@ -14266,7 +14280,7 @@
         <v>2568.2599999999989</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>72</v>
       </c>
@@ -14276,7 +14290,7 @@
       <c r="C360" t="s">
         <v>75</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="1">
         <v>45790</v>
       </c>
       <c r="E360" t="s">
@@ -14304,7 +14318,7 @@
         <v>2549.1499999999992</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>72</v>
       </c>
@@ -14314,7 +14328,7 @@
       <c r="C361" t="s">
         <v>75</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="1">
         <v>45791</v>
       </c>
       <c r="E361" t="s">
@@ -14342,7 +14356,7 @@
         <v>2390.849999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>72</v>
       </c>
@@ -14352,7 +14366,7 @@
       <c r="C362" t="s">
         <v>75</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="1">
         <v>45791</v>
       </c>
       <c r="E362" t="s">
@@ -14380,7 +14394,7 @@
         <v>2267.7599999999989</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>72</v>
       </c>
@@ -14390,7 +14404,7 @@
       <c r="C363" t="s">
         <v>75</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="1">
         <v>45792</v>
       </c>
       <c r="E363" t="s">
@@ -14418,7 +14432,7 @@
         <v>2246.6099999999992</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>72</v>
       </c>
@@ -14428,7 +14442,7 @@
       <c r="C364" t="s">
         <v>75</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="1">
         <v>45792</v>
       </c>
       <c r="E364" t="s">
@@ -14456,7 +14470,7 @@
         <v>2151.7499999999991</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>72</v>
       </c>
@@ -14466,7 +14480,7 @@
       <c r="C365" t="s">
         <v>75</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="1">
         <v>45793</v>
       </c>
       <c r="E365" t="s">
@@ -14494,7 +14508,7 @@
         <v>2184.8999999999992</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>72</v>
       </c>
@@ -14504,7 +14518,7 @@
       <c r="C366" t="s">
         <v>75</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="1">
         <v>45794</v>
       </c>
       <c r="E366" t="s">
@@ -14532,7 +14546,7 @@
         <v>2170.7499999999991</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>72</v>
       </c>
@@ -14542,7 +14556,7 @@
       <c r="C367" t="s">
         <v>75</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="1">
         <v>45796</v>
       </c>
       <c r="E367" t="s">
@@ -14570,7 +14584,7 @@
         <v>2213.309999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>72</v>
       </c>
@@ -14580,7 +14594,7 @@
       <c r="C368" t="s">
         <v>75</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="1">
         <v>45797</v>
       </c>
       <c r="E368" t="s">
@@ -14608,7 +14622,7 @@
         <v>2202.8199999999988</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>72</v>
       </c>
@@ -14618,7 +14632,7 @@
       <c r="C369" t="s">
         <v>75</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="1">
         <v>45801</v>
       </c>
       <c r="E369" t="s">
@@ -14646,7 +14660,7 @@
         <v>2223.7399999999989</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>72</v>
       </c>
@@ -14656,7 +14670,7 @@
       <c r="C370" t="s">
         <v>75</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="1">
         <v>45805</v>
       </c>
       <c r="E370" t="s">
@@ -14684,7 +14698,7 @@
         <v>2213.7199999999989</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>72</v>
       </c>
@@ -14694,7 +14708,7 @@
       <c r="C371" t="s">
         <v>75</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="1">
         <v>45809</v>
       </c>
       <c r="E371" t="s">
@@ -14722,7 +14736,7 @@
         <v>2204.6899999999991</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>72</v>
       </c>
@@ -14732,7 +14746,7 @@
       <c r="C372" t="s">
         <v>75</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="1">
         <v>45811</v>
       </c>
       <c r="E372" t="s">
@@ -14760,7 +14774,7 @@
         <v>2107.2499999999991</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>72</v>
       </c>
@@ -14770,7 +14784,7 @@
       <c r="C373" t="s">
         <v>75</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="1">
         <v>45813</v>
       </c>
       <c r="E373" t="s">
@@ -14798,7 +14812,7 @@
         <v>2097.5499999999988</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>72</v>
       </c>
@@ -14808,7 +14822,7 @@
       <c r="C374" t="s">
         <v>75</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="1">
         <v>45814</v>
       </c>
       <c r="E374" t="s">
@@ -14836,7 +14850,7 @@
         <v>2059.3799999999992</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>72</v>
       </c>
@@ -14846,7 +14860,7 @@
       <c r="C375" t="s">
         <v>75</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="1">
         <v>45817</v>
       </c>
       <c r="E375" t="s">
@@ -14874,7 +14888,7 @@
         <v>2054.349999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>72</v>
       </c>
@@ -14884,7 +14898,7 @@
       <c r="C376" t="s">
         <v>75</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="1">
         <v>45817</v>
       </c>
       <c r="E376" t="s">
@@ -14912,7 +14926,7 @@
         <v>1997.669999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>72</v>
       </c>
@@ -14922,7 +14936,7 @@
       <c r="C377" t="s">
         <v>75</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="1">
         <v>45817</v>
       </c>
       <c r="E377" t="s">
@@ -14950,7 +14964,7 @@
         <v>1958.179999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>72</v>
       </c>
@@ -14960,7 +14974,7 @@
       <c r="C378" t="s">
         <v>75</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="1">
         <v>45818</v>
       </c>
       <c r="E378" t="s">
@@ -14988,7 +15002,7 @@
         <v>1923.179999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>72</v>
       </c>
@@ -14998,7 +15012,7 @@
       <c r="C379" t="s">
         <v>75</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="1">
         <v>45821</v>
       </c>
       <c r="E379" t="s">
@@ -15026,7 +15040,7 @@
         <v>1757.389999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>72</v>
       </c>
@@ -15036,7 +15050,7 @@
       <c r="C380" t="s">
         <v>75</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="1">
         <v>45822</v>
       </c>
       <c r="E380" t="s">
@@ -15064,7 +15078,7 @@
         <v>1725.499999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>72</v>
       </c>
@@ -15074,7 +15088,7 @@
       <c r="C381" t="s">
         <v>75</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="1">
         <v>45823</v>
       </c>
       <c r="E381" t="s">
@@ -15102,7 +15116,7 @@
         <v>1704.6099999999981</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>72</v>
       </c>
@@ -15112,7 +15126,7 @@
       <c r="C382" t="s">
         <v>75</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="1">
         <v>45824</v>
       </c>
       <c r="E382" t="s">
@@ -15140,7 +15154,7 @@
         <v>1689.429999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>72</v>
       </c>
@@ -15150,7 +15164,7 @@
       <c r="C383" t="s">
         <v>75</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="1">
         <v>45824</v>
       </c>
       <c r="E383" t="s">
@@ -15178,7 +15192,7 @@
         <v>1894.399999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>72</v>
       </c>
@@ -15188,7 +15202,7 @@
       <c r="C384" t="s">
         <v>75</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="1">
         <v>45824</v>
       </c>
       <c r="E384" t="s">
@@ -15216,7 +15230,7 @@
         <v>1764.2799999999979</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>72</v>
       </c>
@@ -15226,7 +15240,7 @@
       <c r="C385" t="s">
         <v>75</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="1">
         <v>45826</v>
       </c>
       <c r="E385" t="s">
@@ -15254,7 +15268,7 @@
         <v>1752.749999999998</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>72</v>
       </c>
@@ -15264,7 +15278,7 @@
       <c r="C386" t="s">
         <v>75</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="1">
         <v>45828</v>
       </c>
       <c r="E386" t="s">
@@ -15292,7 +15306,7 @@
         <v>1747.3699999999981</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>72</v>
       </c>
@@ -15302,7 +15316,7 @@
       <c r="C387" t="s">
         <v>75</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="1">
         <v>45830</v>
       </c>
       <c r="E387" t="s">
@@ -15330,7 +15344,7 @@
         <v>1730.1199999999981</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>72</v>
       </c>
@@ -15340,7 +15354,7 @@
       <c r="C388" t="s">
         <v>75</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="1">
         <v>45832</v>
       </c>
       <c r="E388" t="s">
@@ -15368,7 +15382,7 @@
         <v>1701.6399999999981</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>72</v>
       </c>
@@ -15378,7 +15392,7 @@
       <c r="C389" t="s">
         <v>75</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="1">
         <v>45835</v>
       </c>
       <c r="E389" t="s">
@@ -15406,7 +15420,7 @@
         <v>1588.989999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>72</v>
       </c>
@@ -15416,7 +15430,7 @@
       <c r="C390" t="s">
         <v>75</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="1">
         <v>45835</v>
       </c>
       <c r="E390" t="s">
@@ -15444,7 +15458,7 @@
         <v>1547.1299999999981</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>72</v>
       </c>
@@ -15454,7 +15468,7 @@
       <c r="C391" t="s">
         <v>75</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="1">
         <v>45835</v>
       </c>
       <c r="E391" t="s">
@@ -15483,6 +15497,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L391" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Amna Kamran"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="001-0245-000789456"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>